--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA84862-C370-4063-8391-D2F78954F4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DF3BB-AE66-4C9B-871A-25BA6C00B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>ردیف</t>
   </si>
@@ -100,6 +100,81 @@
   </si>
   <si>
     <t>محمودی</t>
+  </si>
+  <si>
+    <t>مهدی</t>
+  </si>
+  <si>
+    <t>محمدآقا زاده</t>
+  </si>
+  <si>
+    <t>صدایی</t>
+  </si>
+  <si>
+    <t>محمدرضا</t>
+  </si>
+  <si>
+    <t>حق پناه</t>
+  </si>
+  <si>
+    <t>فیض</t>
+  </si>
+  <si>
+    <t>امام دوست</t>
+  </si>
+  <si>
+    <t>خورشیدوند</t>
+  </si>
+  <si>
+    <t>امین</t>
+  </si>
+  <si>
+    <t>خورسندی</t>
+  </si>
+  <si>
+    <t>حسین</t>
+  </si>
+  <si>
+    <t>اسکندری</t>
+  </si>
+  <si>
+    <t>غزل</t>
+  </si>
+  <si>
+    <t>مجدی</t>
+  </si>
+  <si>
+    <t>محمدامین</t>
+  </si>
+  <si>
+    <t>احمدی</t>
+  </si>
+  <si>
+    <t>امیرعباس</t>
+  </si>
+  <si>
+    <t>بختیاری</t>
+  </si>
+  <si>
+    <t>عاطفه</t>
+  </si>
+  <si>
+    <t>هانیه</t>
+  </si>
+  <si>
+    <t>آقا محمدی</t>
+  </si>
+  <si>
+    <t>سینا</t>
+  </si>
+  <si>
+    <t>علی نجفی</t>
+  </si>
+  <si>
+    <t>کاظم</t>
+  </si>
+  <si>
+    <t>ایمان زاده</t>
   </si>
 </sst>
 </file>
@@ -420,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,13 +531,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -470,13 +548,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -484,13 +565,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -498,13 +582,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -512,13 +599,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -526,13 +616,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -540,12 +633,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -554,13 +650,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -568,13 +667,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,18 +684,242 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1">
-        <v>5</v>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-    <sortCondition ref="C1:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+    <sortCondition ref="C1:C24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DF3BB-AE66-4C9B-871A-25BA6C00B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC878633-5595-4C71-896F-B074E1B2A897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC878633-5595-4C71-896F-B074E1B2A897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C7275-8DAA-408A-81B0-CFD6690C1CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>ردیف</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>ایمان زاده</t>
+  </si>
+  <si>
+    <t>محمدجواد</t>
+  </si>
+  <si>
+    <t>مبشری</t>
+  </si>
+  <si>
+    <t>ابوالفضل</t>
+  </si>
+  <si>
+    <t>مصباح</t>
+  </si>
+  <si>
+    <t>درخشان</t>
+  </si>
+  <si>
+    <t>تمرین 3</t>
+  </si>
+  <si>
+    <t>سید ابوالفضل</t>
+  </si>
+  <si>
+    <t>خجسته</t>
   </si>
 </sst>
 </file>
@@ -495,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +533,7 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +549,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -542,8 +569,11 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -559,8 +589,11 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -576,8 +609,11 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -593,8 +629,11 @@
       <c r="E5" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -610,8 +649,11 @@
       <c r="E6" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -627,8 +669,11 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -644,8 +689,11 @@
       <c r="E8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -661,8 +709,11 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -678,8 +729,11 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -695,8 +749,11 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -712,8 +769,11 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -729,135 +789,159 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -865,61 +949,153 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
-    <sortCondition ref="C1:C24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortCondition ref="C1:C28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C7275-8DAA-408A-81B0-CFD6690C1CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B8B43-0A79-4F2A-803F-4EFDA2F27F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>ردیف</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>خجسته</t>
+  </si>
+  <si>
+    <t>خاوری</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,19 +801,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -818,19 +821,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -838,16 +841,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -878,19 +881,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -898,16 +901,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -918,16 +921,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -938,19 +941,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -958,13 +961,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -978,16 +981,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -998,19 +1001,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1018,19 +1021,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1038,19 +1041,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1058,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -1078,24 +1081,44 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-    <sortCondition ref="C1:C28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
+    <sortCondition ref="C1:C29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B8B43-0A79-4F2A-803F-4EFDA2F27F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309C7460-CF30-4F35-BE34-D6DEA14C9B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>ردیف</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>خاوری</t>
+  </si>
+  <si>
+    <t>حیدری</t>
+  </si>
+  <si>
+    <t>سهیل</t>
   </si>
 </sst>
 </file>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,19 +807,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -821,19 +827,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -841,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -861,16 +867,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -881,19 +887,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -901,19 +907,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -921,16 +927,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -941,16 +947,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -961,19 +967,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -981,13 +987,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1001,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -1021,19 +1027,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1041,19 +1047,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1061,19 +1067,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1081,10 +1087,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -1101,24 +1107,44 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
-    <sortCondition ref="C1:C29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition ref="C1:C30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309C7460-CF30-4F35-BE34-D6DEA14C9B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB34874-6F31-469B-977C-F88B076EC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB34874-6F31-469B-977C-F88B076EC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879B68F6-5898-4F12-884B-F9CC2A025D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>ردیف</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>سهیل</t>
+  </si>
+  <si>
+    <t>عین اله زاده</t>
+  </si>
+  <si>
+    <t>علیرضا</t>
+  </si>
+  <si>
+    <t>تمرین عدد به حرف</t>
   </si>
 </sst>
 </file>
@@ -528,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,10 +548,12 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +572,11 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -575,14 +589,8 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -595,14 +603,8 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -618,11 +620,8 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -638,11 +637,8 @@
       <c r="E5" s="1">
         <v>4.5</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -652,17 +648,11 @@
       <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
       <c r="E6" s="1">
         <v>4.5</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -672,17 +662,11 @@
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -698,11 +682,8 @@
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -715,14 +696,8 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -739,12 +714,15 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -755,14 +733,8 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -782,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -798,11 +770,8 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -822,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -832,17 +801,11 @@
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -862,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -875,14 +838,8 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -898,11 +855,8 @@
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -912,17 +866,11 @@
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
       <c r="F19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -936,15 +884,15 @@
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -958,11 +906,8 @@
       <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -972,179 +917,175 @@
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
       <c r="E22" s="1">
         <v>4.5</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-    <sortCondition ref="C1:C30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
+    <sortCondition ref="C1:C31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m433\Desktop\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879B68F6-5898-4F12-884B-F9CC2A025D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A04B75-B36C-4B66-BE0C-25B92E03393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>ردیف</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>تمرین عدد به حرف</t>
+  </si>
+  <si>
+    <t>افشار</t>
+  </si>
+  <si>
+    <t>مازیار</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,6 +595,12 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -609,16 +621,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -626,16 +641,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -643,10 +658,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5</v>
       </c>
       <c r="E6" s="1">
         <v>4.5</v>
@@ -657,13 +675,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -671,13 +689,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -688,13 +703,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -702,36 +720,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -739,19 +763,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
         <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -759,15 +777,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
     </row>
@@ -776,18 +797,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
         <v>5</v>
       </c>
     </row>
@@ -796,12 +814,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
       </c>
       <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
         <v>5</v>
       </c>
     </row>
@@ -810,282 +834,290 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
       <c r="F24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
-    <sortCondition ref="C1:C31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+    <sortCondition ref="C1:C32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
